--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/20/seed1/result_data_KNN.xlsx
@@ -499,7 +499,7 @@
         <v>-19.84</v>
       </c>
       <c r="B4" t="n">
-        <v>7.892</v>
+        <v>7.723999999999999</v>
       </c>
       <c r="C4" t="n">
         <v>-13.95</v>
@@ -533,7 +533,7 @@
         <v>-21.08</v>
       </c>
       <c r="B6" t="n">
-        <v>7.501999999999998</v>
+        <v>6.726000000000001</v>
       </c>
       <c r="C6" t="n">
         <v>-15.25</v>
@@ -550,10 +550,10 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>4.906000000000001</v>
+        <v>5.281</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.204</v>
+        <v>-13.048</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -567,7 +567,7 @@
         <v>-21.27</v>
       </c>
       <c r="B8" t="n">
-        <v>7.436</v>
+        <v>6.477000000000001</v>
       </c>
       <c r="C8" t="n">
         <v>-14.64</v>
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.23</v>
+        <v>-12.767</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -638,13 +638,13 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.282</v>
+        <v>-10.809</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.776</v>
+        <v>17.556</v>
       </c>
     </row>
     <row r="13">
@@ -661,7 +661,7 @@
         <v>-8.359999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>16.506</v>
+        <v>16.632</v>
       </c>
     </row>
     <row r="14">
@@ -678,7 +678,7 @@
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>17.186</v>
+        <v>17.05</v>
       </c>
     </row>
     <row r="15">
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.934</v>
+        <v>-13.331</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>4.722</v>
+        <v>5.619</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -712,7 +712,7 @@
         <v>-9.27</v>
       </c>
       <c r="E16" t="n">
-        <v>16.734</v>
+        <v>16.596</v>
       </c>
     </row>
     <row r="17">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.308</v>
+        <v>16.54</v>
       </c>
     </row>
     <row r="20">
@@ -771,16 +771,16 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>8.603999999999999</v>
+        <v>8.475</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.174</v>
+        <v>-12.207</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.34</v>
+        <v>16.176</v>
       </c>
     </row>
     <row r="21">
@@ -788,10 +788,10 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>8.838000000000001</v>
+        <v>9.02</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.852</v>
+        <v>-12.12</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -808,13 +808,13 @@
         <v>8.81</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.63</v>
+        <v>-12.692</v>
       </c>
       <c r="D22" t="n">
         <v>-6.8</v>
       </c>
       <c r="E22" t="n">
-        <v>16.91</v>
+        <v>16.773</v>
       </c>
     </row>
     <row r="23">
@@ -825,7 +825,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.77</v>
+        <v>-12.887</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -907,7 +907,7 @@
         <v>-21.74</v>
       </c>
       <c r="B28" t="n">
-        <v>6.338</v>
+        <v>5.831</v>
       </c>
       <c r="C28" t="n">
         <v>-11.8</v>
@@ -924,10 +924,10 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>4.662000000000001</v>
+        <v>5.21</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.278</v>
+        <v>-11.358</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>5.606</v>
+        <v>5.665</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>5.864</v>
+        <v>6.974000000000001</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1012,7 +1012,7 @@
         <v>6.92</v>
       </c>
       <c r="C34" t="n">
-        <v>-13.284</v>
+        <v>-12.715</v>
       </c>
       <c r="D34" t="n">
         <v>-7.27</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.456</v>
+        <v>16.423</v>
       </c>
     </row>
     <row r="37">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.102</v>
+        <v>9.203999999999999</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.598</v>
+        <v>-11.999</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1165,13 +1165,13 @@
         <v>8.449999999999999</v>
       </c>
       <c r="C43" t="n">
-        <v>-13.308</v>
+        <v>-13.543</v>
       </c>
       <c r="D43" t="n">
         <v>-6.95</v>
       </c>
       <c r="E43" t="n">
-        <v>17.196</v>
+        <v>16.991</v>
       </c>
     </row>
     <row r="44">
@@ -1182,7 +1182,7 @@
         <v>10.98</v>
       </c>
       <c r="C44" t="n">
-        <v>-14.108</v>
+        <v>-13.452</v>
       </c>
       <c r="D44" t="n">
         <v>-8.220000000000001</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.618</v>
+        <v>-13.339</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,16 +1213,16 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.002</v>
+        <v>4.944000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.096</v>
+        <v>-13.91</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
       </c>
       <c r="E46" t="n">
-        <v>16.432</v>
+        <v>16.618</v>
       </c>
     </row>
     <row r="47">
@@ -1284,13 +1284,13 @@
         <v>4.91</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.788</v>
+        <v>-13.539</v>
       </c>
       <c r="D50" t="n">
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.744</v>
+        <v>16.487</v>
       </c>
     </row>
     <row r="51">
@@ -1298,10 +1298,10 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.326</v>
+        <v>5.415</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.078</v>
+        <v>-12.093</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>6.093999999999999</v>
+        <v>5.837000000000001</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1400,10 +1400,10 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>5.113999999999999</v>
+        <v>5.915</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.986</v>
+        <v>-14.252</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>5.756</v>
+        <v>5.552999999999999</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1485,7 +1485,7 @@
         <v>-22.78</v>
       </c>
       <c r="B62" t="n">
-        <v>5.182</v>
+        <v>5.901999999999999</v>
       </c>
       <c r="C62" t="n">
         <v>-14.53</v>
@@ -1539,7 +1539,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.332</v>
+        <v>-12.45</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1553,10 +1553,10 @@
         <v>-21.61</v>
       </c>
       <c r="B66" t="n">
-        <v>5.042</v>
+        <v>4.961</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.214</v>
+        <v>-10.897</v>
       </c>
       <c r="D66" t="n">
         <v>-7.15</v>
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-12.07</v>
+        <v>-11.354</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>7.518000000000001</v>
+        <v>6.968999999999999</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>9.336</v>
+        <v>8.944000000000001</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1732,7 +1732,7 @@
         <v>-7.88</v>
       </c>
       <c r="E76" t="n">
-        <v>16.618</v>
+        <v>16.796</v>
       </c>
     </row>
     <row r="77">
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>6.659999999999999</v>
+        <v>6.233</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1777,7 +1777,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-12.714</v>
+        <v>-12.461</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1862,7 +1862,7 @@
         <v>4.99</v>
       </c>
       <c r="C84" t="n">
-        <v>-13.232</v>
+        <v>-13.643</v>
       </c>
       <c r="D84" t="n">
         <v>-8.34</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-13.65</v>
+        <v>-13.866</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1995,10 +1995,10 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>6.374000000000001</v>
+        <v>6.047</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.524</v>
+        <v>-10.955</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>17.512</v>
+        <v>17.272</v>
       </c>
     </row>
     <row r="96">
@@ -2083,13 +2083,13 @@
         <v>5.08</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.988</v>
+        <v>-11.926</v>
       </c>
       <c r="D97" t="n">
         <v>-7.59</v>
       </c>
       <c r="E97" t="n">
-        <v>16.588</v>
+        <v>16.795</v>
       </c>
     </row>
     <row r="98">
@@ -2123,7 +2123,7 @@
         <v>-7.98</v>
       </c>
       <c r="E99" t="n">
-        <v>16.8</v>
+        <v>16.802</v>
       </c>
     </row>
     <row r="100">
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.596</v>
+        <v>6.298</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
